--- a/app/data/absenteeism_data_41.xlsx
+++ b/app/data/absenteeism_data_41.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57457</v>
+        <v>69901</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sra. Ana Vitória Pires</t>
+          <t>Dr. Caio da Mata</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,51 +494,51 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45083</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>4277.07</v>
+        <v>7554.26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>43133</v>
+        <v>90430</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gustavo Almeida</t>
+          <t>Bruno Aragão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45098</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>9841.200000000001</v>
+        <v>7042.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>66010</v>
+        <v>51443</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brenda Martins</t>
+          <t>Juliana Pereira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,89 +548,89 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45098</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>10393.36</v>
+        <v>5549.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>51894</v>
+        <v>8742</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nicole Gomes</t>
+          <t>Henrique Vieira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45106</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>12194.57</v>
+        <v>11563.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>30172</v>
+        <v>44686</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bryan Campos</t>
+          <t>Brenda da Luz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45104</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>10151.8</v>
+        <v>12335.76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>34531</v>
+        <v>33584</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Felipe Farias</t>
+          <t>Sr. Ryan Cunha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,56 +639,56 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45104</v>
+        <v>45092</v>
       </c>
       <c r="G7" t="n">
-        <v>7150.03</v>
+        <v>12226.97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>21076</v>
+        <v>77499</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dr. Pedro Henrique Porto</t>
+          <t>Sr. Nicolas Azevedo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>7773.62</v>
+        <v>10138.74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>54026</v>
+        <v>72543</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alícia Santos</t>
+          <t>Daniel Barros</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="G9" t="n">
-        <v>8028.44</v>
+        <v>8421.889999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>93661</v>
+        <v>59293</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pedro Miguel Lima</t>
+          <t>Lucas Viana</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45088</v>
+        <v>45085</v>
       </c>
       <c r="G10" t="n">
-        <v>11425.4</v>
+        <v>11393.71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29929</v>
+        <v>94136</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Enzo Silva</t>
+          <t>Luiz Otávio Melo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45078</v>
       </c>
       <c r="G11" t="n">
-        <v>9364.09</v>
+        <v>10827.15</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_41.xlsx
+++ b/app/data/absenteeism_data_41.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37903</v>
+        <v>69937</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Igor Barros</t>
+          <t>Isis Alves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>8411.4</v>
+        <v>11139.71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>59320</v>
+        <v>54216</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luiz Felipe Rocha</t>
+          <t>Davi Lucas Ferreira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45085</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>8382.99</v>
+        <v>9624.549999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97181</v>
+        <v>69151</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Daniel Silva</t>
+          <t>Luiza Moreira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,27 +552,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45105</v>
+        <v>45098</v>
       </c>
       <c r="G4" t="n">
-        <v>6462.58</v>
+        <v>11470.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94731</v>
+        <v>52409</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arthur Moraes</t>
+          <t>Leandro Cardoso</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,27 +581,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45085</v>
+        <v>45087</v>
       </c>
       <c r="G5" t="n">
-        <v>3940.97</v>
+        <v>11508.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>33572</v>
+        <v>35485</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Joana Moura</t>
+          <t>Leandro Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,85 +610,85 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45089</v>
       </c>
       <c r="G6" t="n">
-        <v>7768.73</v>
+        <v>6918.94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>70140</v>
+        <v>12020</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ana Beatriz Teixeira</t>
+          <t>Ana Vitória da Rosa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45084</v>
+        <v>45101</v>
       </c>
       <c r="G7" t="n">
-        <v>11674.14</v>
+        <v>3371.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>94112</v>
+        <v>95467</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maysa da Conceição</t>
+          <t>Davi Azevedo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>3304.71</v>
+        <v>4469.54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>64601</v>
+        <v>71635</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Enzo da Rocha</t>
+          <t>Luna Monteiro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45081</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>7193.29</v>
+        <v>10226.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>69219</v>
+        <v>8013</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Clarice Dias</t>
+          <t>Maria Luiza Correia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45099</v>
+        <v>45079</v>
       </c>
       <c r="G10" t="n">
-        <v>8879.299999999999</v>
+        <v>6179.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>54619</v>
+        <v>46552</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sofia Aragão</t>
+          <t>Srta. Ana Carolina Gomes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45086</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>2797.62</v>
+        <v>5361.2</v>
       </c>
     </row>
   </sheetData>
